--- a/forecasts/HMC.Close_forecast.xlsx
+++ b/forecasts/HMC.Close_forecast.xlsx
@@ -383,376 +383,376 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0154840505483272</v>
+        <v>0.016555686831012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00826297622052372</v>
+        <v>0.00286674642384736</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00854966653390646</v>
+        <v>-0.013853807033347</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00000748519755775917</v>
+        <v>-0.000322490769265964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45813</v>
+        <v>45815</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0155282843334627</v>
+        <v>0.0165512801405475</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0108768484800759</v>
+        <v>-0.00591528234688075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00648446426732303</v>
+        <v>0.00402252893404254</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0225507208804636</v>
+        <v>0.00620441712621763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45814</v>
+        <v>45816</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0155703982779617</v>
+        <v>0.0165470670955984</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00780295922331215</v>
+        <v>-0.000965627269882336</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0122102894966242</v>
+        <v>0.00351370128554638</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0108044686547475</v>
+        <v>-0.0251569205167902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45815</v>
+        <v>45817</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0156104995952618</v>
+        <v>0.0165430392325378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0014924279905073</v>
+        <v>0.00615929598023879</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00978670373432155</v>
+        <v>0.0156221628586362</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0107720278151868</v>
+        <v>-0.0204281265389521</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45816</v>
+        <v>45818</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0156486895278132</v>
+        <v>0.0165391884537351</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.015115726719155</v>
+        <v>-0.00425219934943878</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00900539217486345</v>
+        <v>0.027791937311134</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00322621614183483</v>
+        <v>0.0290887595661278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0156850637339452</v>
+        <v>0.0165355070120644</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0119342565529405</v>
+        <v>-0.0311629412041027</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0208849052675646</v>
+        <v>-0.00132207321660277</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0175750504583143</v>
+        <v>-0.00132207321660277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0157197126442695</v>
+        <v>0.0165319874960389</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00582030387475444</v>
+        <v>0.0178947739232774</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00660240435491233</v>
+        <v>0.0144859774322708</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0112115027172752</v>
+        <v>-0.00704783573781664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0157527217905525</v>
+        <v>0.0165286228155504</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0025755386989785</v>
+        <v>0.0130488352087511</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.00374271004589866</v>
+        <v>0.021066517824866</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0047444272596669</v>
+        <v>0.0170450945997887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45820</v>
+        <v>45822</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0157841721096521</v>
+        <v>0.0165254061881907</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.00669526302970745</v>
+        <v>0.000273906945341256</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0166016406680283</v>
+        <v>0.00332001840542179</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000687107680154215</v>
+        <v>0.0209790697508384</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45821</v>
+        <v>45823</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0158141402248253</v>
+        <v>0.0165223311261331</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0104328081662418</v>
+        <v>0.00577824826126985</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0075597516512792</v>
+        <v>-0.00897197221933627</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00556860544400534</v>
+        <v>0.0235057097511055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45822</v>
+        <v>45824</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0158426987064567</v>
+        <v>0.0165193914235525</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02391165358551</v>
+        <v>0.00371638023345861</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0078819109063123</v>
+        <v>0.00521205080182856</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00224139285015492</v>
+        <v>-0.00640892239756325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45823</v>
+        <v>45825</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0158699163140378</v>
+        <v>0.0165165811445656</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0586072329058841</v>
+        <v>0.011276231981586</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.00452247872585654</v>
+        <v>0.00837424999529708</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0091866755415959</v>
+        <v>0.00790553078113043</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0158958582210324</v>
+        <v>0.0165138946116686</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0262565485831507</v>
+        <v>0.0360724280506418</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.00153280636196788</v>
+        <v>-0.00933221189461474</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00633498812197826</v>
+        <v>-0.00337467202848229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0159205862240938</v>
+        <v>0.0165113263946556</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00000763676697871071</v>
+        <v>0.000924486241817913</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0218741620705655</v>
+        <v>0.0156215869528203</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00373324122731425</v>
+        <v>-0.00877653962169889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0159441589379491</v>
+        <v>0.0165088712999979</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0244759677366021</v>
+        <v>-0.0232740171013447</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.00306915538453663</v>
+        <v>0.00797437397083218</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0112608346374614</v>
+        <v>0.0046893493323039</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45827</v>
+        <v>45829</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0159666319771336</v>
+        <v>0.0165065243606662</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0051207170400728</v>
+        <v>-0.00713664820812909</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00232043340058288</v>
+        <v>0.040268563760284</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0248795889738021</v>
+        <v>-0.000047339458072644</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45828</v>
+        <v>45830</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0159880581256434</v>
+        <v>0.0165042808263792</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00150326859886065</v>
+        <v>-0.0226710172703114</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0543930703240356</v>
+        <v>-0.000861985903084653</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.00325975634337464</v>
+        <v>-0.0192133337212637</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0160084874954686</v>
+        <v>0.0165021361542604</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00632584098245691</v>
+        <v>0.0122081600446899</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.00697738431020621</v>
+        <v>-0.0036820950700878</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00901842037997207</v>
+        <v>0.00541462435835458</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45830</v>
+        <v>45832</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0160279676748791</v>
+        <v>0.0165000859998889</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0102137384236981</v>
+        <v>0.00217321386648906</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00207520773411995</v>
+        <v>0.00987825847415019</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0228213416194646</v>
+        <v>0.0138180534215002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0160465438672544</v>
+        <v>0.016498126208726</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0234059897205268</v>
+        <v>0.0227210288305458</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00964563555096064</v>
+        <v>0.00976678186983705</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0288496482958658</v>
+        <v>-0.00855957016676584</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B22" t="n">
-        <v>0.016064259021173</v>
+        <v>0.0164962528079045</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0164092190851159</v>
+        <v>-0.00170354739981258</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0136804601219518</v>
+        <v>-0.0245692042666956</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.00677573365876394</v>
+        <v>0.0201668228731019</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0160811539524152</v>
+        <v>0.0164944619983657</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0197033954085615</v>
+        <v>-0.00709635470597819</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00265976234137949</v>
+        <v>0.00755910751506838</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00285276513323648</v>
+        <v>0.00954554702343215</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts/HMC.Close_forecast.xlsx
+++ b/forecasts/HMC.Close_forecast.xlsx
@@ -389,13 +389,13 @@
         <v>0.016555686831012</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00286674642384736</v>
+        <v>-0.00904990914554727</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.013853807033347</v>
+        <v>0.0132661238254386</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.000322490769265964</v>
+        <v>0.00245968206905772</v>
       </c>
     </row>
     <row r="3">
@@ -406,13 +406,13 @@
         <v>0.0165512801405475</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00591528234688075</v>
+        <v>-0.00446638686935938</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00402252893404254</v>
+        <v>0.000952280572544319</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00620441712621763</v>
+        <v>-0.00783854339341561</v>
       </c>
     </row>
     <row r="4">
@@ -423,13 +423,13 @@
         <v>0.0165470670955984</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.000965627269882336</v>
+        <v>-0.0000546534619354484</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00351370128554638</v>
+        <v>0.00356775136332854</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0251569205167902</v>
+        <v>0.00334729584208773</v>
       </c>
     </row>
     <row r="5">
@@ -440,13 +440,13 @@
         <v>0.0165430392325378</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00615929598023879</v>
+        <v>0.0114749232176367</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0156221628586362</v>
+        <v>0.00533042598244223</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0204281265389521</v>
+        <v>-0.0207567221211701</v>
       </c>
     </row>
     <row r="6">
@@ -457,13 +457,13 @@
         <v>0.0165391884537351</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00425219934943878</v>
+        <v>0.0156843495728701</v>
       </c>
       <c r="D6" t="n">
-        <v>0.027791937311134</v>
+        <v>0.0271580023734678</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0290887595661278</v>
+        <v>0.00776213142099981</v>
       </c>
     </row>
     <row r="7">
@@ -474,13 +474,13 @@
         <v>0.0165355070120644</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0311629412041027</v>
+        <v>-0.0501931676236597</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00132207321660277</v>
+        <v>0.0120344872780366</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00132207321660277</v>
+        <v>0.00520534574501604</v>
       </c>
     </row>
     <row r="8">
@@ -491,13 +491,13 @@
         <v>0.0165319874960389</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0178947739232774</v>
+        <v>-0.022283293944642</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0144859774322708</v>
+        <v>-0.0133798091666106</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00704783573781664</v>
+        <v>-0.00968977469407317</v>
       </c>
     </row>
     <row r="9">
@@ -508,13 +508,13 @@
         <v>0.0165286228155504</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0130488352087511</v>
+        <v>0.0242588970228605</v>
       </c>
       <c r="D9" t="n">
-        <v>0.021066517824866</v>
+        <v>-0.0939361714991916</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0170450945997887</v>
+        <v>-0.0169340074179202</v>
       </c>
     </row>
     <row r="10">
@@ -525,13 +525,13 @@
         <v>0.0165254061881907</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000273906945341256</v>
+        <v>-0.0120080185095097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00332001840542179</v>
+        <v>-0.0798198686647092</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0209790697508384</v>
+        <v>0.00803550736979405</v>
       </c>
     </row>
     <row r="11">
@@ -542,13 +542,13 @@
         <v>0.0165223311261331</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00577824826126985</v>
+        <v>0.00987877678938457</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00897197221933627</v>
+        <v>-0.0138543253485813</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0235057097511055</v>
+        <v>-0.00864868536599562</v>
       </c>
     </row>
     <row r="12">
@@ -559,13 +559,13 @@
         <v>0.0165193914235525</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00371638023345861</v>
+        <v>-0.00426810014266036</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00521205080182856</v>
+        <v>0.014104274032486</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.00640892239756325</v>
+        <v>0.00183228840812733</v>
       </c>
     </row>
     <row r="13">
@@ -576,13 +576,13 @@
         <v>0.0165165811445656</v>
       </c>
       <c r="C13" t="n">
-        <v>0.011276231981586</v>
+        <v>0.00935824837045491</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00837424999529708</v>
+        <v>0.000363283548856673</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00790553078113043</v>
+        <v>0.0104740934591168</v>
       </c>
     </row>
     <row r="14">
@@ -593,13 +593,13 @@
         <v>0.0165138946116686</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0360724280506418</v>
+        <v>0.00701248395116802</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.00933221189461474</v>
+        <v>0.0146797074504818</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00337467202848229</v>
+        <v>-0.00306226866094144</v>
       </c>
     </row>
     <row r="15">
@@ -610,13 +610,13 @@
         <v>0.0165113263946556</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000924486241817913</v>
+        <v>0.0082968853751277</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0156215869528203</v>
+        <v>-0.0307095474200333</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.00877653962169889</v>
+        <v>-0.0304671184854686</v>
       </c>
     </row>
     <row r="16">
@@ -627,13 +627,13 @@
         <v>0.0165088712999979</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0232740171013447</v>
+        <v>-0.0151456412081558</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00797437397083218</v>
+        <v>-0.0117186313765871</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0046893493323039</v>
+        <v>-0.00553607165727194</v>
       </c>
     </row>
     <row r="17">
@@ -644,13 +644,13 @@
         <v>0.0165065243606662</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.00713664820812909</v>
+        <v>0.0584904092529146</v>
       </c>
       <c r="D17" t="n">
-        <v>0.040268563760284</v>
+        <v>0.0215703192221152</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.000047339458072644</v>
+        <v>-0.0158184125237879</v>
       </c>
     </row>
     <row r="18">
@@ -661,13 +661,13 @@
         <v>0.0165042808263792</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0226710172703114</v>
+        <v>0.0201098830819165</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.000861985903084653</v>
+        <v>0.00370843885659659</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0192133337212637</v>
+        <v>0.0176275560828709</v>
       </c>
     </row>
     <row r="19">
@@ -678,13 +678,13 @@
         <v>0.0165021361542604</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0122081600446899</v>
+        <v>0.0208011951973191</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0036820950700878</v>
+        <v>-0.00237053362845942</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00541462435835458</v>
+        <v>-0.00676218067029737</v>
       </c>
     </row>
     <row r="20">
@@ -695,13 +695,13 @@
         <v>0.0165000859998889</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00217321386648906</v>
+        <v>-0.00066580169481249</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00987825847415019</v>
+        <v>0.0343833446581948</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0138180534215002</v>
+        <v>-0.00222267200362958</v>
       </c>
     </row>
     <row r="21">
@@ -712,13 +712,13 @@
         <v>0.016498126208726</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0227210288305458</v>
+        <v>0.00265339136273969</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00976678186983705</v>
+        <v>-0.00495290900976488</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.00855957016676584</v>
+        <v>0.0123799442148852</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>0.0164962528079045</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.00170354739981258</v>
+        <v>-0.0218337323811972</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0245692042666956</v>
+        <v>-0.00548299889021932</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0201668228731019</v>
+        <v>-0.027432370812256</v>
       </c>
     </row>
     <row r="23">
@@ -746,13 +746,13 @@
         <v>0.0164944619983657</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.00709635470597819</v>
+        <v>0.0209783210732777</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00755910751506838</v>
+        <v>-0.00519709379567054</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00954554702343215</v>
+        <v>0.00839120203018274</v>
       </c>
     </row>
   </sheetData>

--- a/forecasts/HMC.Close_forecast.xlsx
+++ b/forecasts/HMC.Close_forecast.xlsx
@@ -383,376 +383,376 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="B2" t="n">
-        <v>0.016555686831012</v>
+        <v>0.0143680692144623</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00904990914554727</v>
+        <v>-0.00157092788369578</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0132661238254386</v>
+        <v>0.0105327131199687</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00245968206905772</v>
+        <v>0.00537304451373472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0165512801405475</v>
+        <v>0.0144674723499654</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00446638686935938</v>
+        <v>0.00429958716934905</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000952280572544319</v>
+        <v>0.00381161817533506</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00783854339341561</v>
+        <v>-0.0417370902224458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0165470670955984</v>
+        <v>0.0145616880673725</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0000546534619354484</v>
+        <v>0.00861426012848907</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00356775136332854</v>
+        <v>-0.0166918669137687</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00334729584208773</v>
+        <v>0.0742083014983902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0165430392325378</v>
+        <v>0.0146510218302509</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0114749232176367</v>
+        <v>0.00305105295483831</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00533042598244223</v>
+        <v>0.00340931947682253</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0207567221211701</v>
+        <v>0.0199722245262498</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0165391884537351</v>
+        <v>0.0147357572770148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0156843495728701</v>
+        <v>-0.0306885933942831</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0271580023734678</v>
+        <v>-0.00196436459740585</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00776213142099981</v>
+        <v>-0.0100311858434859</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0165355070120644</v>
+        <v>0.0148161582148521</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0501931676236597</v>
+        <v>-0.0072159197907254</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0120344872780366</v>
+        <v>0.00451892880470456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00520534574501604</v>
+        <v>0.00495580835202333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0165319874960389</v>
+        <v>0.0148924703816442</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.022283293944642</v>
+        <v>0.0148074646883009</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0133798091666106</v>
+        <v>-0.0232794833285084</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00968977469407317</v>
+        <v>0.00218976458819705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0165286228155504</v>
+        <v>0.0149649230088174</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0242588970228605</v>
+        <v>0.0254786170856592</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0939361714991916</v>
+        <v>0.022740994615931</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0169340074179202</v>
+        <v>0.0210812037850262</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0165254061881907</v>
+        <v>0.0150337302125983</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0120080185095097</v>
+        <v>-0.013524890873878</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0798198686647092</v>
+        <v>0.00395002567322938</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00803550736979405</v>
+        <v>-0.00980051912690101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0165223311261331</v>
+        <v>0.0150990922367158</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00987877678938457</v>
+        <v>-0.00980055604749051</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0138543253485813</v>
+        <v>-0.0296502773565233</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00864868536599562</v>
+        <v>0.00174643484250759</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0165193914235525</v>
+        <v>0.0151611965659618</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00426810014266036</v>
+        <v>0.0203429637816415</v>
       </c>
       <c r="D12" t="n">
-        <v>0.014104274032486</v>
+        <v>0.0280718141072195</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00183228840812733</v>
+        <v>-0.0122935513451557</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0165165811445656</v>
+        <v>0.0152202189270529</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00935824837045491</v>
+        <v>0.0291117857988743</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000363283548856673</v>
+        <v>0.00620790982675485</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0104740934591168</v>
+        <v>-0.0157956002643199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0165138946116686</v>
+        <v>0.0152763241907708</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00701248395116802</v>
+        <v>0.000986282033547937</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0146797074504818</v>
+        <v>0.00620787290616535</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.00306226866094144</v>
+        <v>0.00182355048363758</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0165113263946556</v>
+        <v>0.0153296671873253</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0082968853751277</v>
+        <v>0.00025282831861003</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0307095474200333</v>
+        <v>0.0144972010995295</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0304671184854686</v>
+        <v>0.00505652049367806</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0165088712999979</v>
+        <v>0.0153803934451775</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0151456412081558</v>
+        <v>-0.00932834817152434</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0117186313765871</v>
+        <v>0.00144165240971948</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.00553607165727194</v>
+        <v>-0.00895109796937963</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0165065243606662</v>
+        <v>0.0154286398621406</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0584904092529146</v>
+        <v>0.00456737248370498</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0215703192221152</v>
+        <v>0.0121496442867311</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0158184125237879</v>
+        <v>-0.00568595959868399</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45830</v>
+        <v>45837</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0165042808263792</v>
+        <v>0.0154745353163736</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0201098830819165</v>
+        <v>-0.0139647065653874</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00370843885659659</v>
+        <v>0.00426874293008601</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0176275560828709</v>
+        <v>-0.00444524316130422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45831</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0165021361542604</v>
+        <v>0.0155182012238723</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0208011951973191</v>
+        <v>-0.0376218403919335</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.00237053362845942</v>
+        <v>-0.0000170203917590339</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.00676218067029737</v>
+        <v>-0.0255942948190171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45832</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0165000859998889</v>
+        <v>0.0155597520482041</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.00066580169481249</v>
+        <v>0.0069432838426449</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0343833446581948</v>
+        <v>0.0105721609858566</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.00222267200362958</v>
+        <v>0.00273892822040138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>0.016498126208726</v>
+        <v>0.0155992957675004</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00265339136273969</v>
+        <v>-0.0306106017609725</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.00495290900976488</v>
+        <v>-0.0011254675883256</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0123799442148852</v>
+        <v>-0.00472786628625722</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45834</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0164962528079045</v>
+        <v>0.0156369343030967</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0218337323811972</v>
+        <v>-0.0110157893295891</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.00548299889021932</v>
+        <v>-0.0732902719545904</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.027432370812256</v>
+        <v>0.00491533256236709</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45835</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0164944619983657</v>
+        <v>0.015672763913677</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0209783210732777</v>
+        <v>-0.0145020295291731</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.00519709379567054</v>
+        <v>0.00977485655529717</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00839120203018274</v>
+        <v>0.00808955758820942</v>
       </c>
     </row>
   </sheetData>
